--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7522963333333333</v>
+        <v>0.393753</v>
       </c>
       <c r="N2">
-        <v>2.256889</v>
+        <v>1.181259</v>
       </c>
       <c r="O2">
-        <v>0.07029254942997476</v>
+        <v>0.05217225506577142</v>
       </c>
       <c r="P2">
-        <v>0.07029254942997475</v>
+        <v>0.05217225506577142</v>
       </c>
       <c r="Q2">
-        <v>0.1283648248875556</v>
+        <v>0.067186336892</v>
       </c>
       <c r="R2">
-        <v>1.155283423988</v>
+        <v>0.6046770320279999</v>
       </c>
       <c r="S2">
-        <v>0.07029254942997476</v>
+        <v>0.05217225506577142</v>
       </c>
       <c r="T2">
-        <v>0.07029254942997475</v>
+        <v>0.05217225506577142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>10.611872</v>
       </c>
       <c r="O3">
-        <v>0.3305149420749382</v>
+        <v>0.4686908567124721</v>
       </c>
       <c r="P3">
-        <v>0.3305149420749381</v>
+        <v>0.4686908567124721</v>
       </c>
       <c r="Q3">
         <v>0.6035702646471113</v>
@@ -632,10 +632,10 @@
         <v>5.432132381824001</v>
       </c>
       <c r="S3">
-        <v>0.3305149420749382</v>
+        <v>0.4686908567124721</v>
       </c>
       <c r="T3">
-        <v>0.3305149420749381</v>
+        <v>0.4686908567124721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.412775333333333</v>
+        <v>3.616128666666667</v>
       </c>
       <c r="N4">
-        <v>19.238326</v>
+        <v>10.848386</v>
       </c>
       <c r="O4">
-        <v>0.5991925084950871</v>
+        <v>0.4791368882217565</v>
       </c>
       <c r="P4">
-        <v>0.599192508495087</v>
+        <v>0.4791368882217565</v>
       </c>
       <c r="Q4">
-        <v>1.094216130310222</v>
+        <v>0.6170224451457778</v>
       </c>
       <c r="R4">
-        <v>9.847945172792</v>
+        <v>5.553202006312</v>
       </c>
       <c r="S4">
-        <v>0.5991925084950871</v>
+        <v>0.4791368882217565</v>
       </c>
       <c r="T4">
-        <v>0.599192508495087</v>
+        <v>0.4791368882217565</v>
       </c>
     </row>
   </sheetData>
